--- a/nbs2/final_results.xlsx
+++ b/nbs2/final_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="282">
   <si>
     <t>gbid_x</t>
   </si>
@@ -1217,7 +1217,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L122"/>
+  <dimension ref="A1:L74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2064,7 +2064,7 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C23" t="s">
         <v>119</v>
@@ -2102,7 +2102,7 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C24" t="s">
         <v>119</v>
@@ -2140,7 +2140,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C25" t="s">
         <v>119</v>
@@ -2175,3687 +2175,1863 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D26">
-        <v>830</v>
+        <v>782</v>
       </c>
       <c r="E26">
-        <v>56.58072289156627</v>
+        <v>61.01790281329923</v>
       </c>
       <c r="F26">
         <v>37</v>
       </c>
       <c r="G26">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="H26">
-        <v>58.46216216216217</v>
+        <v>61.20980926430518</v>
       </c>
       <c r="I26">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="J26">
-        <v>0.0003503567325620802</v>
+        <v>0.0001248224774298076</v>
       </c>
       <c r="K26" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L26" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C27" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D27">
-        <v>830</v>
+        <v>800</v>
       </c>
       <c r="E27">
-        <v>56.58072289156627</v>
+        <v>52.68085106382978</v>
       </c>
       <c r="F27">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="G27">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="H27">
-        <v>58.46216216216217</v>
+        <v>54.84718498659517</v>
       </c>
       <c r="I27">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J27">
-        <v>0.0003503567325620802</v>
+        <v>0.002189589438044235</v>
       </c>
       <c r="K27" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L27" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C28" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D28">
-        <v>830</v>
+        <v>800</v>
       </c>
       <c r="E28">
-        <v>56.58072289156627</v>
+        <v>56.75</v>
       </c>
       <c r="F28">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G28">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="H28">
-        <v>58.46216216216217</v>
+        <v>56.24128686327078</v>
       </c>
       <c r="I28">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="J28">
-        <v>0.0003503567325620802</v>
+        <v>0.007964182374041782</v>
       </c>
       <c r="K28" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="L28" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C29" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D29">
-        <v>830</v>
+        <v>812</v>
       </c>
       <c r="E29">
-        <v>56.58072289156627</v>
+        <v>60.98522167487685</v>
       </c>
       <c r="F29">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G29">
         <v>740</v>
       </c>
       <c r="H29">
-        <v>58.46216216216217</v>
+        <v>61.02162162162162</v>
       </c>
       <c r="I29">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="J29">
-        <v>0.0003503567325620802</v>
+        <v>4.969272331105851E-05</v>
       </c>
       <c r="K29" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L29" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C30" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D30">
-        <v>830</v>
+        <v>776</v>
       </c>
       <c r="E30">
-        <v>56.58072289156627</v>
+        <v>60.39428571428572</v>
       </c>
       <c r="F30">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G30">
         <v>740</v>
       </c>
       <c r="H30">
-        <v>58.46216216216217</v>
+        <v>60.76756756756757</v>
       </c>
       <c r="I30">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="J30">
-        <v>0.0003503567325620802</v>
+        <v>7.505936168136362E-05</v>
       </c>
       <c r="K30" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="L30" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C31" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D31">
-        <v>830</v>
+        <v>776</v>
       </c>
       <c r="E31">
-        <v>56.58072289156627</v>
+        <v>60.64690721649485</v>
       </c>
       <c r="F31">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="G31">
         <v>740</v>
       </c>
       <c r="H31">
-        <v>58.46216216216217</v>
+        <v>60.74864864864865</v>
       </c>
       <c r="I31">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="J31">
-        <v>0.0003503567325620802</v>
+        <v>0.001022690519165803</v>
       </c>
       <c r="K31" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="L31" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C32" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D32">
-        <v>830</v>
+        <v>776</v>
       </c>
       <c r="E32">
-        <v>56.58072289156627</v>
+        <v>58.20618556701031</v>
       </c>
       <c r="F32">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="G32">
         <v>740</v>
       </c>
       <c r="H32">
-        <v>58.46216216216217</v>
+        <v>58.36486486486486</v>
       </c>
       <c r="I32">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J32">
-        <v>0.0003503567325620802</v>
+        <v>0.003298382764366919</v>
       </c>
       <c r="K32" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="L32" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C33" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="D33">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="E33">
-        <v>56.58072289156627</v>
+        <v>60.91990291262136</v>
       </c>
       <c r="F33">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G33">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="H33">
-        <v>58.46216216216217</v>
+        <v>60.98910081743869</v>
       </c>
       <c r="I33">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="J33">
-        <v>0.0003503567325620802</v>
+        <v>8.285162911738321E-05</v>
       </c>
       <c r="K33" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="L33" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="D34">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="E34">
-        <v>56.58072289156627</v>
+        <v>56.5</v>
       </c>
       <c r="F34">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G34">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="H34">
-        <v>58.46216216216217</v>
+        <v>60.28882833787466</v>
       </c>
       <c r="I34">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J34">
-        <v>0.0003503567325620802</v>
+        <v>0.0002090298968515931</v>
       </c>
       <c r="K34" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="L34" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C35" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="D35">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="E35">
-        <v>56.58072289156627</v>
+        <v>59.42271293375394</v>
       </c>
       <c r="F35">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="G35">
         <v>740</v>
       </c>
       <c r="H35">
-        <v>58.46216216216217</v>
+        <v>60.74594594594595</v>
       </c>
       <c r="I35">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="J35">
-        <v>0.0003503567325620802</v>
+        <v>0.01258449151922926</v>
       </c>
       <c r="K35" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="L35" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C36" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="D36">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="E36">
-        <v>56.58072289156627</v>
+        <v>56.26315789473684</v>
       </c>
       <c r="F36">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G36">
         <v>740</v>
       </c>
       <c r="H36">
-        <v>58.46216216216217</v>
+        <v>54.21351351351351</v>
       </c>
       <c r="I36">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="J36">
-        <v>0.0003503567325620802</v>
+        <v>0.007944371320833242</v>
       </c>
       <c r="K36" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="L36" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C37" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="D37">
-        <v>830</v>
+        <v>764</v>
       </c>
       <c r="E37">
-        <v>56.58072289156627</v>
+        <v>61.2953216374269</v>
       </c>
       <c r="F37">
         <v>37</v>
       </c>
       <c r="G37">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="H37">
-        <v>58.46216216216217</v>
+        <v>61.01608579088472</v>
       </c>
       <c r="I37">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="J37">
-        <v>0.0003503567325620802</v>
+        <v>0.0001313109829724536</v>
       </c>
       <c r="K37" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="L37" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C38" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D38">
         <v>782</v>
       </c>
       <c r="E38">
-        <v>61.01790281329923</v>
+        <v>61.21739130434783</v>
       </c>
       <c r="F38">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G38">
-        <v>734</v>
+        <v>746</v>
       </c>
       <c r="H38">
-        <v>61.20980926430518</v>
+        <v>61.03485254691689</v>
       </c>
       <c r="I38">
         <v>43</v>
       </c>
       <c r="J38">
-        <v>0.0001248224774298076</v>
+        <v>5.011872336272725E-05</v>
       </c>
       <c r="K38" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="L38" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C39" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="D39">
-        <v>800</v>
+        <v>830</v>
       </c>
       <c r="E39">
-        <v>52.68085106382978</v>
+        <v>60.30602409638554</v>
       </c>
       <c r="F39">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="G39">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="H39">
-        <v>54.84718498659517</v>
+        <v>61.05675675675676</v>
       </c>
       <c r="I39">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="J39">
-        <v>0.002189589438044235</v>
+        <v>0.0001043040213044193</v>
       </c>
       <c r="K39" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="L39" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C40" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="D40">
-        <v>800</v>
+        <v>830</v>
       </c>
       <c r="E40">
-        <v>56.75</v>
+        <v>60.30602409638554</v>
       </c>
       <c r="F40">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G40">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="H40">
-        <v>56.24128686327078</v>
+        <v>61.05675675675676</v>
       </c>
       <c r="I40">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J40">
-        <v>0.007964182374041782</v>
+        <v>0.0001043040213044193</v>
       </c>
       <c r="K40" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="L40" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C41" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="D41">
-        <v>812</v>
+        <v>830</v>
       </c>
       <c r="E41">
-        <v>60.98522167487685</v>
+        <v>60.30602409638554</v>
       </c>
       <c r="F41">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G41">
         <v>740</v>
       </c>
       <c r="H41">
-        <v>61.02162162162162</v>
+        <v>61.05675675675676</v>
       </c>
       <c r="I41">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J41">
-        <v>4.969272331105851E-05</v>
+        <v>0.0001043040213044193</v>
       </c>
       <c r="K41" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="L41" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C42" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="D42">
-        <v>776</v>
+        <v>830</v>
       </c>
       <c r="E42">
-        <v>60.39428571428572</v>
+        <v>60.30602409638554</v>
       </c>
       <c r="F42">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G42">
         <v>740</v>
       </c>
       <c r="H42">
-        <v>60.76756756756757</v>
+        <v>61.05675675675676</v>
       </c>
       <c r="I42">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J42">
-        <v>7.505936168136362E-05</v>
+        <v>0.0001043040213044193</v>
       </c>
       <c r="K42" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="L42" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C43" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="D43">
-        <v>776</v>
+        <v>830</v>
       </c>
       <c r="E43">
-        <v>60.64690721649485</v>
+        <v>60.88674698795181</v>
       </c>
       <c r="F43">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="G43">
         <v>740</v>
       </c>
       <c r="H43">
-        <v>60.74864864864865</v>
+        <v>60.47567567567567</v>
       </c>
       <c r="I43">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="J43">
-        <v>0.001022690519165803</v>
+        <v>0.0001627093863381523</v>
       </c>
       <c r="K43" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="L43" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C44" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="D44">
-        <v>776</v>
+        <v>830</v>
       </c>
       <c r="E44">
-        <v>58.20618556701031</v>
+        <v>60.88674698795181</v>
       </c>
       <c r="F44">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G44">
         <v>740</v>
       </c>
       <c r="H44">
-        <v>58.36486486486486</v>
+        <v>60.47567567567567</v>
       </c>
       <c r="I44">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="J44">
-        <v>0.003298382764366919</v>
+        <v>0.0001627093863381523</v>
       </c>
       <c r="K44" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="L44" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B45" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C45" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D45">
-        <v>824</v>
+        <v>830</v>
       </c>
       <c r="E45">
-        <v>60.91990291262136</v>
+        <v>60.88674698795181</v>
       </c>
       <c r="F45">
         <v>39</v>
       </c>
       <c r="G45">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="H45">
-        <v>60.98910081743869</v>
+        <v>60.47567567567567</v>
       </c>
       <c r="I45">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="J45">
-        <v>8.285162911738321E-05</v>
+        <v>0.0001627093863381523</v>
       </c>
       <c r="K45" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="L45" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B46" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C46" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D46">
-        <v>824</v>
+        <v>830</v>
       </c>
       <c r="E46">
-        <v>56.5</v>
+        <v>60.88674698795181</v>
       </c>
       <c r="F46">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G46">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="H46">
-        <v>60.28882833787466</v>
+        <v>60.47567567567567</v>
       </c>
       <c r="I46">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J46">
-        <v>0.0002090298968515931</v>
+        <v>0.0001627093863381523</v>
       </c>
       <c r="K46" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="L46" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B47" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C47" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D47">
-        <v>824</v>
+        <v>776</v>
       </c>
       <c r="E47">
-        <v>59.42271293375394</v>
+        <v>61.10309278350515</v>
       </c>
       <c r="F47">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="G47">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="H47">
-        <v>60.74594594594595</v>
+        <v>60.69168900804289</v>
       </c>
       <c r="I47">
         <v>43</v>
       </c>
       <c r="J47">
-        <v>0.01258449151922926</v>
+        <v>5.011872336272725E-05</v>
       </c>
       <c r="K47" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="L47" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B48" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C48" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D48">
-        <v>824</v>
+        <v>776</v>
       </c>
       <c r="E48">
-        <v>56.26315789473684</v>
+        <v>61.36197916666666</v>
       </c>
       <c r="F48">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G48">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="H48">
-        <v>54.21351351351351</v>
+        <v>60.77479892761394</v>
       </c>
       <c r="I48">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="J48">
-        <v>0.007944371320833242</v>
+        <v>0.0001381537537330269</v>
       </c>
       <c r="K48" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="L48" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B49" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C49" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D49">
-        <v>764</v>
+        <v>776</v>
       </c>
       <c r="E49">
-        <v>61.2953216374269</v>
+        <v>61.02023121387283</v>
       </c>
       <c r="F49">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G49">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="H49">
-        <v>61.01608579088472</v>
+        <v>60.58378378378379</v>
       </c>
       <c r="I49">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="J49">
-        <v>0.0001313109829724536</v>
+        <v>0.0004764087769851963</v>
       </c>
       <c r="K49" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="L49" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B50" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C50" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D50">
-        <v>782</v>
+        <v>830</v>
       </c>
       <c r="E50">
-        <v>61.21739130434783</v>
+        <v>53.99518072289157</v>
       </c>
       <c r="F50">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="G50">
         <v>746</v>
       </c>
       <c r="H50">
-        <v>61.03485254691689</v>
+        <v>52.28954423592494</v>
       </c>
       <c r="I50">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="J50">
-        <v>5.011872336272725E-05</v>
+        <v>0.004496472020903849</v>
       </c>
       <c r="K50" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="L50" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" t="s">
+        <v>84</v>
+      </c>
+      <c r="C51" t="s">
+        <v>139</v>
+      </c>
+      <c r="D51">
+        <v>788</v>
+      </c>
+      <c r="E51">
+        <v>59.90355329949239</v>
+      </c>
+      <c r="F51">
+        <v>21</v>
+      </c>
+      <c r="G51">
+        <v>746</v>
+      </c>
+      <c r="H51">
+        <v>58.51474530831099</v>
+      </c>
+      <c r="I51">
         <v>35</v>
       </c>
-      <c r="B51" t="s">
-        <v>68</v>
-      </c>
-      <c r="C51" t="s">
-        <v>133</v>
-      </c>
-      <c r="D51">
-        <v>830</v>
-      </c>
-      <c r="E51">
-        <v>60.30602409638554</v>
-      </c>
-      <c r="F51">
-        <v>43</v>
-      </c>
-      <c r="G51">
-        <v>740</v>
-      </c>
-      <c r="H51">
-        <v>61.05675675675676</v>
-      </c>
-      <c r="I51">
-        <v>38</v>
-      </c>
       <c r="J51">
-        <v>0.0001043040213044193</v>
+        <v>0.004129755056629826</v>
       </c>
       <c r="K51" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="L51" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B52" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="C52" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="D52">
-        <v>830</v>
+        <v>788</v>
       </c>
       <c r="E52">
-        <v>60.30602409638554</v>
+        <v>56.30704225352113</v>
       </c>
       <c r="F52">
+        <v>27</v>
+      </c>
+      <c r="G52">
+        <v>746</v>
+      </c>
+      <c r="H52">
+        <v>59.0053619302949</v>
+      </c>
+      <c r="I52">
         <v>43</v>
       </c>
-      <c r="G52">
-        <v>740</v>
-      </c>
-      <c r="H52">
-        <v>61.05675675675676</v>
-      </c>
-      <c r="I52">
-        <v>38</v>
-      </c>
       <c r="J52">
-        <v>0.0001043040213044193</v>
+        <v>0.001022690519165803</v>
       </c>
       <c r="K52" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="L52" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B53" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="C53" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="D53">
-        <v>830</v>
+        <v>794</v>
       </c>
       <c r="E53">
-        <v>60.30602409638554</v>
+        <v>60.3073047858942</v>
       </c>
       <c r="F53">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G53">
         <v>740</v>
       </c>
       <c r="H53">
-        <v>61.05675675675676</v>
+        <v>60.73513513513514</v>
       </c>
       <c r="I53">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="J53">
-        <v>0.0001043040213044193</v>
+        <v>0.0004170694758898155</v>
       </c>
       <c r="K53" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="L53" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
     <row r="54" spans="1:12">
       <c r="A54" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B54" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="C54" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="D54">
-        <v>830</v>
+        <v>770</v>
       </c>
       <c r="E54">
-        <v>60.30602409638554</v>
+        <v>60.92207792207792</v>
       </c>
       <c r="F54">
+        <v>39</v>
+      </c>
+      <c r="G54">
+        <v>746</v>
+      </c>
+      <c r="H54">
+        <v>60.71313672922252</v>
+      </c>
+      <c r="I54">
         <v>43</v>
       </c>
-      <c r="G54">
-        <v>740</v>
-      </c>
-      <c r="H54">
-        <v>61.05675675675676</v>
-      </c>
-      <c r="I54">
-        <v>38</v>
-      </c>
       <c r="J54">
-        <v>0.0001043040213044193</v>
+        <v>8.8005632271072E-05</v>
       </c>
       <c r="K54" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="L54" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B55" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C55" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="D55">
-        <v>830</v>
+        <v>818</v>
       </c>
       <c r="E55">
-        <v>60.30602409638554</v>
+        <v>60.98777506112469</v>
       </c>
       <c r="F55">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G55">
         <v>740</v>
       </c>
       <c r="H55">
-        <v>61.05675675675676</v>
+        <v>60.8054054054054</v>
       </c>
       <c r="I55">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J55">
-        <v>0.0001043040213044193</v>
+        <v>0.0007292258216455277</v>
       </c>
       <c r="K55" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="L55" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B56" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C56" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="D56">
-        <v>830</v>
+        <v>818</v>
       </c>
       <c r="E56">
-        <v>60.30602409638554</v>
+        <v>46.73076923076923</v>
       </c>
       <c r="F56">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="G56">
         <v>740</v>
       </c>
       <c r="H56">
-        <v>61.05675675675676</v>
+        <v>57.81621621621622</v>
       </c>
       <c r="I56">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="J56">
-        <v>0.0001043040213044193</v>
+        <v>0.00658113883008419</v>
       </c>
       <c r="K56" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="L56" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B57" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="C57" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="D57">
-        <v>830</v>
+        <v>806</v>
       </c>
       <c r="E57">
-        <v>60.30602409638554</v>
+        <v>59.70223325062035</v>
       </c>
       <c r="F57">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="G57">
         <v>740</v>
       </c>
       <c r="H57">
-        <v>61.05675675675676</v>
+        <v>61.14324324324324</v>
       </c>
       <c r="I57">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="J57">
-        <v>0.0001043040213044193</v>
+        <v>0.001996830479826457</v>
       </c>
       <c r="K57" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="L57" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B58" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="C58" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="D58">
-        <v>830</v>
+        <v>806</v>
       </c>
       <c r="E58">
-        <v>60.30602409638554</v>
+        <v>59.92520775623269</v>
       </c>
       <c r="F58">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G58">
         <v>740</v>
       </c>
       <c r="H58">
-        <v>61.05675675675676</v>
+        <v>60.68108108108108</v>
       </c>
       <c r="I58">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="J58">
-        <v>0.0001043040213044193</v>
+        <v>0.0003280381043976444</v>
       </c>
       <c r="K58" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="L58" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B59" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="C59" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="D59">
-        <v>830</v>
+        <v>800</v>
       </c>
       <c r="E59">
-        <v>60.30602409638554</v>
+        <v>60.815</v>
       </c>
       <c r="F59">
         <v>43</v>
       </c>
       <c r="G59">
-        <v>740</v>
+        <v>752</v>
       </c>
       <c r="H59">
-        <v>61.05675675675676</v>
+        <v>60.99734042553192</v>
       </c>
       <c r="I59">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J59">
-        <v>0.0001043040213044193</v>
+        <v>5.011872336272725E-05</v>
       </c>
       <c r="K59" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="L59" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B60" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C60" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="D60">
-        <v>830</v>
+        <v>782</v>
       </c>
       <c r="E60">
-        <v>60.30602409638554</v>
+        <v>61.32865168539326</v>
       </c>
       <c r="F60">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G60">
         <v>740</v>
       </c>
       <c r="H60">
-        <v>61.05675675675676</v>
+        <v>60.65135135135135</v>
       </c>
       <c r="I60">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J60">
-        <v>0.0001043040213044193</v>
+        <v>0.0001097394273232883</v>
       </c>
       <c r="K60" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="L60" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
     </row>
     <row r="61" spans="1:12">
       <c r="A61" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B61" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C61" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="D61">
-        <v>830</v>
+        <v>782</v>
       </c>
       <c r="E61">
-        <v>60.30602409638554</v>
+        <v>60.34271099744245</v>
       </c>
       <c r="F61">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="G61">
         <v>740</v>
       </c>
       <c r="H61">
-        <v>61.05675675675676</v>
+        <v>60.79189189189189</v>
       </c>
       <c r="I61">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="J61">
-        <v>0.0001043040213044193</v>
+        <v>0.002525841526664037</v>
       </c>
       <c r="K61" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="L61" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
     </row>
     <row r="62" spans="1:12">
       <c r="A62" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B62" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="C62" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="D62">
-        <v>830</v>
+        <v>776</v>
       </c>
       <c r="E62">
-        <v>60.30602409638554</v>
+        <v>60.27415143603133</v>
       </c>
       <c r="F62">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G62">
         <v>740</v>
       </c>
       <c r="H62">
-        <v>61.05675675675676</v>
+        <v>61.18108108108108</v>
       </c>
       <c r="I62">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="J62">
-        <v>0.0001043040213044193</v>
+        <v>0.0004170694758898155</v>
       </c>
       <c r="K62" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="L62" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B63" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="C63" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="D63">
-        <v>830</v>
+        <v>794</v>
       </c>
       <c r="E63">
-        <v>60.30602409638554</v>
+        <v>60.63231197771588</v>
       </c>
       <c r="F63">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="G63">
         <v>740</v>
       </c>
       <c r="H63">
-        <v>61.05675675675676</v>
+        <v>60.80810810810811</v>
       </c>
       <c r="I63">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J63">
-        <v>0.0001043040213044193</v>
+        <v>0.003186334589624975</v>
       </c>
       <c r="K63" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="L63" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
     </row>
     <row r="64" spans="1:12">
       <c r="A64" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B64" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="C64" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="D64">
-        <v>830</v>
+        <v>782</v>
       </c>
       <c r="E64">
-        <v>60.30602409638554</v>
+        <v>60.93956043956044</v>
       </c>
       <c r="F64">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G64">
         <v>740</v>
       </c>
       <c r="H64">
-        <v>61.05675675675676</v>
+        <v>61.01351351351352</v>
       </c>
       <c r="I64">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J64">
-        <v>0.0001043040213044193</v>
+        <v>0.0003353840307677713</v>
       </c>
       <c r="K64" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="L64" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
     </row>
     <row r="65" spans="1:12">
       <c r="A65" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B65" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="C65" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="D65">
-        <v>830</v>
+        <v>782</v>
       </c>
       <c r="E65">
-        <v>60.30602409638554</v>
+        <v>54.08439897698209</v>
       </c>
       <c r="F65">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="G65">
         <v>740</v>
       </c>
       <c r="H65">
-        <v>61.05675675675676</v>
+        <v>56.94864864864865</v>
       </c>
       <c r="I65">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J65">
-        <v>0.0001043040213044193</v>
+        <v>0.002306014525007583</v>
       </c>
       <c r="K65" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="L65" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
     </row>
     <row r="66" spans="1:12">
       <c r="A66" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B66" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="C66" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="D66">
-        <v>830</v>
+        <v>782</v>
       </c>
       <c r="E66">
-        <v>60.30602409638554</v>
+        <v>60.0694087403599</v>
       </c>
       <c r="F66">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="G66">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="H66">
-        <v>61.05675675675676</v>
+        <v>60.92370572207084</v>
       </c>
       <c r="I66">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="J66">
-        <v>0.0001043040213044193</v>
+        <v>0.0008123519547582319</v>
       </c>
       <c r="K66" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="L66" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B67" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="C67" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="D67">
-        <v>830</v>
+        <v>776</v>
       </c>
       <c r="E67">
-        <v>60.88674698795181</v>
+        <v>59.40175953079179</v>
       </c>
       <c r="F67">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G67">
         <v>740</v>
       </c>
       <c r="H67">
-        <v>60.47567567567567</v>
+        <v>60.9</v>
       </c>
       <c r="I67">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J67">
-        <v>0.0001627093863381523</v>
+        <v>0.0004152417879885404</v>
       </c>
       <c r="K67" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="L67" t="s">
-        <v>256</v>
+        <v>277</v>
       </c>
     </row>
     <row r="68" spans="1:12">
       <c r="A68" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="B68" t="s">
         <v>68</v>
       </c>
       <c r="C68" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="D68">
         <v>830</v>
       </c>
       <c r="E68">
-        <v>60.88674698795181</v>
+        <v>60.92048192771085</v>
       </c>
       <c r="F68">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G68">
         <v>740</v>
       </c>
       <c r="H68">
-        <v>60.47567567567567</v>
+        <v>60.31638418079096</v>
       </c>
       <c r="I68">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="J68">
-        <v>0.0001627093863381523</v>
+        <v>5.660722890537328E-05</v>
       </c>
       <c r="K68" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="L68" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
     </row>
     <row r="69" spans="1:12">
       <c r="A69" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="B69" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C69" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="D69">
         <v>830</v>
       </c>
       <c r="E69">
-        <v>60.88674698795181</v>
+        <v>60.92048192771085</v>
       </c>
       <c r="F69">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G69">
         <v>740</v>
       </c>
       <c r="H69">
-        <v>60.47567567567567</v>
+        <v>60.31638418079096</v>
       </c>
       <c r="I69">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="J69">
-        <v>0.0001627093863381523</v>
+        <v>5.660722890537328E-05</v>
       </c>
       <c r="K69" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="L69" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
     </row>
     <row r="70" spans="1:12">
       <c r="A70" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="B70" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C70" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="D70">
         <v>830</v>
       </c>
       <c r="E70">
-        <v>60.88674698795181</v>
+        <v>60.92048192771085</v>
       </c>
       <c r="F70">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G70">
         <v>740</v>
       </c>
       <c r="H70">
-        <v>60.47567567567567</v>
+        <v>60.31638418079096</v>
       </c>
       <c r="I70">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="J70">
-        <v>0.0001627093863381523</v>
+        <v>5.660722890537328E-05</v>
       </c>
       <c r="K70" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="L70" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="B71" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C71" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="D71">
         <v>830</v>
       </c>
       <c r="E71">
-        <v>60.88674698795181</v>
+        <v>60.92048192771085</v>
       </c>
       <c r="F71">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G71">
         <v>740</v>
       </c>
       <c r="H71">
-        <v>60.47567567567567</v>
+        <v>60.31638418079096</v>
       </c>
       <c r="I71">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="J71">
-        <v>0.0001627093863381523</v>
+        <v>5.660722890537328E-05</v>
       </c>
       <c r="K71" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="L71" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
     </row>
     <row r="72" spans="1:12">
       <c r="A72" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B72" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="C72" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="D72">
-        <v>830</v>
+        <v>770</v>
       </c>
       <c r="E72">
-        <v>60.88674698795181</v>
+        <v>60.82152974504249</v>
       </c>
       <c r="F72">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G72">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="H72">
-        <v>60.47567567567567</v>
+        <v>61.01608579088472</v>
       </c>
       <c r="I72">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="J72">
-        <v>0.0001627093863381523</v>
+        <v>0.0003405380339214601</v>
       </c>
       <c r="K72" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="L72" t="s">
-        <v>256</v>
+        <v>279</v>
       </c>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="B73" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="C73" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="D73">
-        <v>830</v>
+        <v>770</v>
       </c>
       <c r="E73">
-        <v>60.88674698795181</v>
+        <v>60.74285714285714</v>
       </c>
       <c r="F73">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G73">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="H73">
-        <v>60.47567567567567</v>
+        <v>61.16353887399464</v>
       </c>
       <c r="I73">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="J73">
-        <v>0.0001627093863381523</v>
+        <v>0.0002821414840376459</v>
       </c>
       <c r="K73" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="L73" t="s">
-        <v>256</v>
+        <v>280</v>
       </c>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B74" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="C74" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="D74">
-        <v>830</v>
+        <v>770</v>
       </c>
       <c r="E74">
-        <v>60.88674698795181</v>
+        <v>60.18441558441558</v>
       </c>
       <c r="F74">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G74">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="H74">
-        <v>60.47567567567567</v>
+        <v>60.88770053475936</v>
       </c>
       <c r="I74">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J74">
-        <v>0.0001627093863381523</v>
+        <v>0.006610105731210934</v>
       </c>
       <c r="K74" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="L74" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12">
-      <c r="A75" t="s">
-        <v>35</v>
-      </c>
-      <c r="B75" t="s">
-        <v>70</v>
-      </c>
-      <c r="C75" t="s">
-        <v>134</v>
-      </c>
-      <c r="D75">
-        <v>830</v>
-      </c>
-      <c r="E75">
-        <v>60.88674698795181</v>
-      </c>
-      <c r="F75">
-        <v>39</v>
-      </c>
-      <c r="G75">
-        <v>740</v>
-      </c>
-      <c r="H75">
-        <v>60.47567567567567</v>
-      </c>
-      <c r="I75">
-        <v>37</v>
-      </c>
-      <c r="J75">
-        <v>0.0001627093863381523</v>
-      </c>
-      <c r="K75" t="s">
-        <v>195</v>
-      </c>
-      <c r="L75" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12">
-      <c r="A76" t="s">
-        <v>35</v>
-      </c>
-      <c r="B76" t="s">
-        <v>70</v>
-      </c>
-      <c r="C76" t="s">
-        <v>134</v>
-      </c>
-      <c r="D76">
-        <v>830</v>
-      </c>
-      <c r="E76">
-        <v>60.88674698795181</v>
-      </c>
-      <c r="F76">
-        <v>39</v>
-      </c>
-      <c r="G76">
-        <v>740</v>
-      </c>
-      <c r="H76">
-        <v>60.47567567567567</v>
-      </c>
-      <c r="I76">
-        <v>37</v>
-      </c>
-      <c r="J76">
-        <v>0.0001627093863381523</v>
-      </c>
-      <c r="K76" t="s">
-        <v>195</v>
-      </c>
-      <c r="L76" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12">
-      <c r="A77" t="s">
-        <v>35</v>
-      </c>
-      <c r="B77" t="s">
-        <v>70</v>
-      </c>
-      <c r="C77" t="s">
-        <v>134</v>
-      </c>
-      <c r="D77">
-        <v>830</v>
-      </c>
-      <c r="E77">
-        <v>60.88674698795181</v>
-      </c>
-      <c r="F77">
-        <v>39</v>
-      </c>
-      <c r="G77">
-        <v>740</v>
-      </c>
-      <c r="H77">
-        <v>60.47567567567567</v>
-      </c>
-      <c r="I77">
-        <v>37</v>
-      </c>
-      <c r="J77">
-        <v>0.0001627093863381523</v>
-      </c>
-      <c r="K77" t="s">
-        <v>195</v>
-      </c>
-      <c r="L77" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12">
-      <c r="A78" t="s">
-        <v>35</v>
-      </c>
-      <c r="B78" t="s">
-        <v>70</v>
-      </c>
-      <c r="C78" t="s">
-        <v>134</v>
-      </c>
-      <c r="D78">
-        <v>830</v>
-      </c>
-      <c r="E78">
-        <v>60.88674698795181</v>
-      </c>
-      <c r="F78">
-        <v>39</v>
-      </c>
-      <c r="G78">
-        <v>740</v>
-      </c>
-      <c r="H78">
-        <v>60.47567567567567</v>
-      </c>
-      <c r="I78">
-        <v>37</v>
-      </c>
-      <c r="J78">
-        <v>0.0001627093863381523</v>
-      </c>
-      <c r="K78" t="s">
-        <v>195</v>
-      </c>
-      <c r="L78" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12">
-      <c r="A79" t="s">
-        <v>35</v>
-      </c>
-      <c r="B79" t="s">
-        <v>71</v>
-      </c>
-      <c r="C79" t="s">
-        <v>134</v>
-      </c>
-      <c r="D79">
-        <v>830</v>
-      </c>
-      <c r="E79">
-        <v>60.88674698795181</v>
-      </c>
-      <c r="F79">
-        <v>39</v>
-      </c>
-      <c r="G79">
-        <v>740</v>
-      </c>
-      <c r="H79">
-        <v>60.47567567567567</v>
-      </c>
-      <c r="I79">
-        <v>37</v>
-      </c>
-      <c r="J79">
-        <v>0.0001627093863381523</v>
-      </c>
-      <c r="K79" t="s">
-        <v>195</v>
-      </c>
-      <c r="L79" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12">
-      <c r="A80" t="s">
-        <v>35</v>
-      </c>
-      <c r="B80" t="s">
-        <v>71</v>
-      </c>
-      <c r="C80" t="s">
-        <v>134</v>
-      </c>
-      <c r="D80">
-        <v>830</v>
-      </c>
-      <c r="E80">
-        <v>60.88674698795181</v>
-      </c>
-      <c r="F80">
-        <v>39</v>
-      </c>
-      <c r="G80">
-        <v>740</v>
-      </c>
-      <c r="H80">
-        <v>60.47567567567567</v>
-      </c>
-      <c r="I80">
-        <v>37</v>
-      </c>
-      <c r="J80">
-        <v>0.0001627093863381523</v>
-      </c>
-      <c r="K80" t="s">
-        <v>195</v>
-      </c>
-      <c r="L80" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12">
-      <c r="A81" t="s">
-        <v>35</v>
-      </c>
-      <c r="B81" t="s">
-        <v>71</v>
-      </c>
-      <c r="C81" t="s">
-        <v>134</v>
-      </c>
-      <c r="D81">
-        <v>830</v>
-      </c>
-      <c r="E81">
-        <v>60.88674698795181</v>
-      </c>
-      <c r="F81">
-        <v>39</v>
-      </c>
-      <c r="G81">
-        <v>740</v>
-      </c>
-      <c r="H81">
-        <v>60.47567567567567</v>
-      </c>
-      <c r="I81">
-        <v>37</v>
-      </c>
-      <c r="J81">
-        <v>0.0001627093863381523</v>
-      </c>
-      <c r="K81" t="s">
-        <v>195</v>
-      </c>
-      <c r="L81" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12">
-      <c r="A82" t="s">
-        <v>35</v>
-      </c>
-      <c r="B82" t="s">
-        <v>71</v>
-      </c>
-      <c r="C82" t="s">
-        <v>134</v>
-      </c>
-      <c r="D82">
-        <v>830</v>
-      </c>
-      <c r="E82">
-        <v>60.88674698795181</v>
-      </c>
-      <c r="F82">
-        <v>39</v>
-      </c>
-      <c r="G82">
-        <v>740</v>
-      </c>
-      <c r="H82">
-        <v>60.47567567567567</v>
-      </c>
-      <c r="I82">
-        <v>37</v>
-      </c>
-      <c r="J82">
-        <v>0.0001627093863381523</v>
-      </c>
-      <c r="K82" t="s">
-        <v>195</v>
-      </c>
-      <c r="L82" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12">
-      <c r="A83" t="s">
-        <v>36</v>
-      </c>
-      <c r="B83" t="s">
-        <v>81</v>
-      </c>
-      <c r="C83" t="s">
-        <v>135</v>
-      </c>
-      <c r="D83">
-        <v>776</v>
-      </c>
-      <c r="E83">
-        <v>61.10309278350515</v>
-      </c>
-      <c r="F83">
-        <v>43</v>
-      </c>
-      <c r="G83">
-        <v>746</v>
-      </c>
-      <c r="H83">
-        <v>60.69168900804289</v>
-      </c>
-      <c r="I83">
-        <v>43</v>
-      </c>
-      <c r="J83">
-        <v>5.011872336272725E-05</v>
-      </c>
-      <c r="K83" t="s">
-        <v>196</v>
-      </c>
-      <c r="L83" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12">
-      <c r="A84" t="s">
-        <v>36</v>
-      </c>
-      <c r="B84" t="s">
-        <v>81</v>
-      </c>
-      <c r="C84" t="s">
-        <v>136</v>
-      </c>
-      <c r="D84">
-        <v>776</v>
-      </c>
-      <c r="E84">
-        <v>61.36197916666666</v>
-      </c>
-      <c r="F84">
-        <v>46</v>
-      </c>
-      <c r="G84">
-        <v>746</v>
-      </c>
-      <c r="H84">
-        <v>60.77479892761394</v>
-      </c>
-      <c r="I84">
-        <v>36</v>
-      </c>
-      <c r="J84">
-        <v>0.0001381537537330269</v>
-      </c>
-      <c r="K84" t="s">
-        <v>197</v>
-      </c>
-      <c r="L84" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12">
-      <c r="A85" t="s">
-        <v>37</v>
-      </c>
-      <c r="B85" t="s">
-        <v>82</v>
-      </c>
-      <c r="C85" t="s">
-        <v>137</v>
-      </c>
-      <c r="D85">
-        <v>776</v>
-      </c>
-      <c r="E85">
-        <v>61.02023121387283</v>
-      </c>
-      <c r="F85">
-        <v>38</v>
-      </c>
-      <c r="G85">
-        <v>740</v>
-      </c>
-      <c r="H85">
-        <v>60.58378378378379</v>
-      </c>
-      <c r="I85">
-        <v>31</v>
-      </c>
-      <c r="J85">
-        <v>0.0004764087769851963</v>
-      </c>
-      <c r="K85" t="s">
-        <v>198</v>
-      </c>
-      <c r="L85" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12">
-      <c r="A86" t="s">
-        <v>38</v>
-      </c>
-      <c r="B86" t="s">
-        <v>83</v>
-      </c>
-      <c r="C86" t="s">
-        <v>138</v>
-      </c>
-      <c r="D86">
-        <v>830</v>
-      </c>
-      <c r="E86">
-        <v>53.99518072289157</v>
-      </c>
-      <c r="F86">
-        <v>23</v>
-      </c>
-      <c r="G86">
-        <v>746</v>
-      </c>
-      <c r="H86">
-        <v>52.28954423592494</v>
-      </c>
-      <c r="I86">
-        <v>24</v>
-      </c>
-      <c r="J86">
-        <v>0.004496472020903849</v>
-      </c>
-      <c r="K86" t="s">
-        <v>199</v>
-      </c>
-      <c r="L86" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12">
-      <c r="A87" t="s">
-        <v>39</v>
-      </c>
-      <c r="B87" t="s">
-        <v>84</v>
-      </c>
-      <c r="C87" t="s">
-        <v>139</v>
-      </c>
-      <c r="D87">
-        <v>788</v>
-      </c>
-      <c r="E87">
-        <v>59.90355329949239</v>
-      </c>
-      <c r="F87">
-        <v>21</v>
-      </c>
-      <c r="G87">
-        <v>746</v>
-      </c>
-      <c r="H87">
-        <v>58.51474530831099</v>
-      </c>
-      <c r="I87">
-        <v>35</v>
-      </c>
-      <c r="J87">
-        <v>0.004129755056629826</v>
-      </c>
-      <c r="K87" t="s">
-        <v>200</v>
-      </c>
-      <c r="L87" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12">
-      <c r="A88" t="s">
-        <v>39</v>
-      </c>
-      <c r="B88" t="s">
-        <v>84</v>
-      </c>
-      <c r="C88" t="s">
-        <v>140</v>
-      </c>
-      <c r="D88">
-        <v>788</v>
-      </c>
-      <c r="E88">
-        <v>56.30704225352113</v>
-      </c>
-      <c r="F88">
-        <v>27</v>
-      </c>
-      <c r="G88">
-        <v>746</v>
-      </c>
-      <c r="H88">
-        <v>59.0053619302949</v>
-      </c>
-      <c r="I88">
-        <v>43</v>
-      </c>
-      <c r="J88">
-        <v>0.001022690519165803</v>
-      </c>
-      <c r="K88" t="s">
-        <v>201</v>
-      </c>
-      <c r="L88" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12">
-      <c r="A89" t="s">
-        <v>40</v>
-      </c>
-      <c r="B89" t="s">
-        <v>85</v>
-      </c>
-      <c r="C89" t="s">
-        <v>141</v>
-      </c>
-      <c r="D89">
-        <v>794</v>
-      </c>
-      <c r="E89">
-        <v>60.3073047858942</v>
-      </c>
-      <c r="F89">
-        <v>31</v>
-      </c>
-      <c r="G89">
-        <v>740</v>
-      </c>
-      <c r="H89">
-        <v>60.73513513513514</v>
-      </c>
-      <c r="I89">
-        <v>44</v>
-      </c>
-      <c r="J89">
-        <v>0.0004170694758898155</v>
-      </c>
-      <c r="K89" t="s">
-        <v>202</v>
-      </c>
-      <c r="L89" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12">
-      <c r="A90" t="s">
-        <v>41</v>
-      </c>
-      <c r="B90" t="s">
-        <v>86</v>
-      </c>
-      <c r="C90" t="s">
-        <v>142</v>
-      </c>
-      <c r="D90">
-        <v>770</v>
-      </c>
-      <c r="E90">
-        <v>60.92207792207792</v>
-      </c>
-      <c r="F90">
-        <v>39</v>
-      </c>
-      <c r="G90">
-        <v>746</v>
-      </c>
-      <c r="H90">
-        <v>60.71313672922252</v>
-      </c>
-      <c r="I90">
-        <v>43</v>
-      </c>
-      <c r="J90">
-        <v>8.8005632271072E-05</v>
-      </c>
-      <c r="K90" t="s">
-        <v>203</v>
-      </c>
-      <c r="L90" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12">
-      <c r="A91" t="s">
-        <v>42</v>
-      </c>
-      <c r="B91" t="s">
-        <v>87</v>
-      </c>
-      <c r="C91" t="s">
-        <v>143</v>
-      </c>
-      <c r="D91">
-        <v>818</v>
-      </c>
-      <c r="E91">
-        <v>60.98777506112469</v>
-      </c>
-      <c r="F91">
-        <v>29</v>
-      </c>
-      <c r="G91">
-        <v>740</v>
-      </c>
-      <c r="H91">
-        <v>60.8054054054054</v>
-      </c>
-      <c r="I91">
-        <v>37</v>
-      </c>
-      <c r="J91">
-        <v>0.0007292258216455277</v>
-      </c>
-      <c r="K91" t="s">
-        <v>204</v>
-      </c>
-      <c r="L91" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12">
-      <c r="A92" t="s">
-        <v>42</v>
-      </c>
-      <c r="B92" t="s">
-        <v>87</v>
-      </c>
-      <c r="C92" t="s">
-        <v>144</v>
-      </c>
-      <c r="D92">
-        <v>818</v>
-      </c>
-      <c r="E92">
-        <v>46.73076923076923</v>
-      </c>
-      <c r="F92">
-        <v>25</v>
-      </c>
-      <c r="G92">
-        <v>740</v>
-      </c>
-      <c r="H92">
-        <v>57.81621621621622</v>
-      </c>
-      <c r="I92">
-        <v>20</v>
-      </c>
-      <c r="J92">
-        <v>0.00658113883008419</v>
-      </c>
-      <c r="K92" t="s">
-        <v>205</v>
-      </c>
-      <c r="L92" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12">
-      <c r="A93" t="s">
-        <v>43</v>
-      </c>
-      <c r="B93" t="s">
-        <v>88</v>
-      </c>
-      <c r="C93" t="s">
-        <v>145</v>
-      </c>
-      <c r="D93">
-        <v>806</v>
-      </c>
-      <c r="E93">
-        <v>59.70223325062035</v>
-      </c>
-      <c r="F93">
-        <v>24</v>
-      </c>
-      <c r="G93">
-        <v>740</v>
-      </c>
-      <c r="H93">
-        <v>61.14324324324324</v>
-      </c>
-      <c r="I93">
-        <v>49</v>
-      </c>
-      <c r="J93">
-        <v>0.001996830479826457</v>
-      </c>
-      <c r="K93" t="s">
-        <v>206</v>
-      </c>
-      <c r="L93" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12">
-      <c r="A94" t="s">
-        <v>43</v>
-      </c>
-      <c r="B94" t="s">
-        <v>88</v>
-      </c>
-      <c r="C94" t="s">
-        <v>146</v>
-      </c>
-      <c r="D94">
-        <v>806</v>
-      </c>
-      <c r="E94">
-        <v>59.92520775623269</v>
-      </c>
-      <c r="F94">
-        <v>32</v>
-      </c>
-      <c r="G94">
-        <v>740</v>
-      </c>
-      <c r="H94">
-        <v>60.68108108108108</v>
-      </c>
-      <c r="I94">
-        <v>46</v>
-      </c>
-      <c r="J94">
-        <v>0.0003280381043976444</v>
-      </c>
-      <c r="K94" t="s">
-        <v>207</v>
-      </c>
-      <c r="L94" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12">
-      <c r="A95" t="s">
-        <v>44</v>
-      </c>
-      <c r="B95" t="s">
-        <v>89</v>
-      </c>
-      <c r="C95" t="s">
-        <v>147</v>
-      </c>
-      <c r="D95">
-        <v>800</v>
-      </c>
-      <c r="E95">
-        <v>60.815</v>
-      </c>
-      <c r="F95">
-        <v>43</v>
-      </c>
-      <c r="G95">
-        <v>752</v>
-      </c>
-      <c r="H95">
-        <v>60.99734042553192</v>
-      </c>
-      <c r="I95">
-        <v>43</v>
-      </c>
-      <c r="J95">
-        <v>5.011872336272725E-05</v>
-      </c>
-      <c r="K95" t="s">
-        <v>208</v>
-      </c>
-      <c r="L95" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12">
-      <c r="A96" t="s">
-        <v>45</v>
-      </c>
-      <c r="B96" t="s">
-        <v>90</v>
-      </c>
-      <c r="C96" t="s">
-        <v>148</v>
-      </c>
-      <c r="D96">
-        <v>782</v>
-      </c>
-      <c r="E96">
-        <v>61.32865168539326</v>
-      </c>
-      <c r="F96">
-        <v>47</v>
-      </c>
-      <c r="G96">
-        <v>740</v>
-      </c>
-      <c r="H96">
-        <v>60.65135135135135</v>
-      </c>
-      <c r="I96">
-        <v>37</v>
-      </c>
-      <c r="J96">
-        <v>0.0001097394273232883</v>
-      </c>
-      <c r="K96" t="s">
-        <v>209</v>
-      </c>
-      <c r="L96" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12">
-      <c r="A97" t="s">
-        <v>45</v>
-      </c>
-      <c r="B97" t="s">
-        <v>90</v>
-      </c>
-      <c r="C97" t="s">
-        <v>149</v>
-      </c>
-      <c r="D97">
-        <v>782</v>
-      </c>
-      <c r="E97">
-        <v>60.34271099744245</v>
-      </c>
-      <c r="F97">
-        <v>23</v>
-      </c>
-      <c r="G97">
-        <v>740</v>
-      </c>
-      <c r="H97">
-        <v>60.79189189189189</v>
-      </c>
-      <c r="I97">
-        <v>44</v>
-      </c>
-      <c r="J97">
-        <v>0.002525841526664037</v>
-      </c>
-      <c r="K97" t="s">
-        <v>210</v>
-      </c>
-      <c r="L97" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12">
-      <c r="A98" t="s">
-        <v>46</v>
-      </c>
-      <c r="B98" t="s">
-        <v>91</v>
-      </c>
-      <c r="C98" t="s">
-        <v>150</v>
-      </c>
-      <c r="D98">
-        <v>776</v>
-      </c>
-      <c r="E98">
-        <v>60.27415143603133</v>
-      </c>
-      <c r="F98">
-        <v>31</v>
-      </c>
-      <c r="G98">
-        <v>740</v>
-      </c>
-      <c r="H98">
-        <v>61.18108108108108</v>
-      </c>
-      <c r="I98">
-        <v>44</v>
-      </c>
-      <c r="J98">
-        <v>0.0004170694758898155</v>
-      </c>
-      <c r="K98" t="s">
-        <v>211</v>
-      </c>
-      <c r="L98" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12">
-      <c r="A99" t="s">
-        <v>47</v>
-      </c>
-      <c r="B99" t="s">
-        <v>92</v>
-      </c>
-      <c r="C99" t="s">
-        <v>151</v>
-      </c>
-      <c r="D99">
-        <v>794</v>
-      </c>
-      <c r="E99">
-        <v>60.63231197771588</v>
-      </c>
-      <c r="F99">
-        <v>22</v>
-      </c>
-      <c r="G99">
-        <v>740</v>
-      </c>
-      <c r="H99">
-        <v>60.80810810810811</v>
-      </c>
-      <c r="I99">
-        <v>42</v>
-      </c>
-      <c r="J99">
-        <v>0.003186334589624975</v>
-      </c>
-      <c r="K99" t="s">
-        <v>212</v>
-      </c>
-      <c r="L99" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12">
-      <c r="A100" t="s">
-        <v>48</v>
-      </c>
-      <c r="B100" t="s">
-        <v>93</v>
-      </c>
-      <c r="C100" t="s">
-        <v>152</v>
-      </c>
-      <c r="D100">
-        <v>782</v>
-      </c>
-      <c r="E100">
-        <v>60.93956043956044</v>
-      </c>
-      <c r="F100">
-        <v>44</v>
-      </c>
-      <c r="G100">
-        <v>740</v>
-      </c>
-      <c r="H100">
-        <v>61.01351351351352</v>
-      </c>
-      <c r="I100">
-        <v>32</v>
-      </c>
-      <c r="J100">
-        <v>0.0003353840307677713</v>
-      </c>
-      <c r="K100" t="s">
-        <v>213</v>
-      </c>
-      <c r="L100" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12">
-      <c r="A101" t="s">
-        <v>48</v>
-      </c>
-      <c r="B101" t="s">
-        <v>93</v>
-      </c>
-      <c r="C101" t="s">
-        <v>153</v>
-      </c>
-      <c r="D101">
-        <v>782</v>
-      </c>
-      <c r="E101">
-        <v>54.08439897698209</v>
-      </c>
-      <c r="F101">
-        <v>24</v>
-      </c>
-      <c r="G101">
-        <v>740</v>
-      </c>
-      <c r="H101">
-        <v>56.94864864864865</v>
-      </c>
-      <c r="I101">
-        <v>32</v>
-      </c>
-      <c r="J101">
-        <v>0.002306014525007583</v>
-      </c>
-      <c r="K101" t="s">
-        <v>214</v>
-      </c>
-      <c r="L101" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12">
-      <c r="A102" t="s">
-        <v>49</v>
-      </c>
-      <c r="B102" t="s">
-        <v>94</v>
-      </c>
-      <c r="C102" t="s">
-        <v>154</v>
-      </c>
-      <c r="D102">
-        <v>782</v>
-      </c>
-      <c r="E102">
-        <v>60.0694087403599</v>
-      </c>
-      <c r="F102">
-        <v>28</v>
-      </c>
-      <c r="G102">
-        <v>734</v>
-      </c>
-      <c r="H102">
-        <v>60.92370572207084</v>
-      </c>
-      <c r="I102">
-        <v>44</v>
-      </c>
-      <c r="J102">
-        <v>0.0008123519547582319</v>
-      </c>
-      <c r="K102" t="s">
-        <v>215</v>
-      </c>
-      <c r="L102" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12">
-      <c r="A103" t="s">
-        <v>50</v>
-      </c>
-      <c r="B103" t="s">
-        <v>95</v>
-      </c>
-      <c r="C103" t="s">
-        <v>155</v>
-      </c>
-      <c r="D103">
-        <v>776</v>
-      </c>
-      <c r="E103">
-        <v>59.40175953079179</v>
-      </c>
-      <c r="F103">
-        <v>37</v>
-      </c>
-      <c r="G103">
-        <v>740</v>
-      </c>
-      <c r="H103">
-        <v>60.9</v>
-      </c>
-      <c r="I103">
-        <v>32</v>
-      </c>
-      <c r="J103">
-        <v>0.0004152417879885404</v>
-      </c>
-      <c r="K103" t="s">
-        <v>216</v>
-      </c>
-      <c r="L103" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12">
-      <c r="A104" t="s">
-        <v>51</v>
-      </c>
-      <c r="B104" t="s">
-        <v>68</v>
-      </c>
-      <c r="C104" t="s">
-        <v>156</v>
-      </c>
-      <c r="D104">
-        <v>830</v>
-      </c>
-      <c r="E104">
-        <v>60.92048192771085</v>
-      </c>
-      <c r="F104">
-        <v>43</v>
-      </c>
-      <c r="G104">
-        <v>740</v>
-      </c>
-      <c r="H104">
-        <v>60.31638418079096</v>
-      </c>
-      <c r="I104">
-        <v>42</v>
-      </c>
-      <c r="J104">
-        <v>5.660722890537328E-05</v>
-      </c>
-      <c r="K104" t="s">
-        <v>217</v>
-      </c>
-      <c r="L104" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12">
-      <c r="A105" t="s">
-        <v>51</v>
-      </c>
-      <c r="B105" t="s">
-        <v>68</v>
-      </c>
-      <c r="C105" t="s">
-        <v>156</v>
-      </c>
-      <c r="D105">
-        <v>830</v>
-      </c>
-      <c r="E105">
-        <v>60.92048192771085</v>
-      </c>
-      <c r="F105">
-        <v>43</v>
-      </c>
-      <c r="G105">
-        <v>740</v>
-      </c>
-      <c r="H105">
-        <v>60.31638418079096</v>
-      </c>
-      <c r="I105">
-        <v>42</v>
-      </c>
-      <c r="J105">
-        <v>5.660722890537328E-05</v>
-      </c>
-      <c r="K105" t="s">
-        <v>217</v>
-      </c>
-      <c r="L105" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12">
-      <c r="A106" t="s">
-        <v>51</v>
-      </c>
-      <c r="B106" t="s">
-        <v>68</v>
-      </c>
-      <c r="C106" t="s">
-        <v>156</v>
-      </c>
-      <c r="D106">
-        <v>830</v>
-      </c>
-      <c r="E106">
-        <v>60.92048192771085</v>
-      </c>
-      <c r="F106">
-        <v>43</v>
-      </c>
-      <c r="G106">
-        <v>740</v>
-      </c>
-      <c r="H106">
-        <v>60.31638418079096</v>
-      </c>
-      <c r="I106">
-        <v>42</v>
-      </c>
-      <c r="J106">
-        <v>5.660722890537328E-05</v>
-      </c>
-      <c r="K106" t="s">
-        <v>217</v>
-      </c>
-      <c r="L106" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12">
-      <c r="A107" t="s">
-        <v>51</v>
-      </c>
-      <c r="B107" t="s">
-        <v>68</v>
-      </c>
-      <c r="C107" t="s">
-        <v>156</v>
-      </c>
-      <c r="D107">
-        <v>830</v>
-      </c>
-      <c r="E107">
-        <v>60.92048192771085</v>
-      </c>
-      <c r="F107">
-        <v>43</v>
-      </c>
-      <c r="G107">
-        <v>740</v>
-      </c>
-      <c r="H107">
-        <v>60.31638418079096</v>
-      </c>
-      <c r="I107">
-        <v>42</v>
-      </c>
-      <c r="J107">
-        <v>5.660722890537328E-05</v>
-      </c>
-      <c r="K107" t="s">
-        <v>217</v>
-      </c>
-      <c r="L107" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12">
-      <c r="A108" t="s">
-        <v>51</v>
-      </c>
-      <c r="B108" t="s">
-        <v>69</v>
-      </c>
-      <c r="C108" t="s">
-        <v>156</v>
-      </c>
-      <c r="D108">
-        <v>830</v>
-      </c>
-      <c r="E108">
-        <v>60.92048192771085</v>
-      </c>
-      <c r="F108">
-        <v>43</v>
-      </c>
-      <c r="G108">
-        <v>740</v>
-      </c>
-      <c r="H108">
-        <v>60.31638418079096</v>
-      </c>
-      <c r="I108">
-        <v>42</v>
-      </c>
-      <c r="J108">
-        <v>5.660722890537328E-05</v>
-      </c>
-      <c r="K108" t="s">
-        <v>217</v>
-      </c>
-      <c r="L108" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12">
-      <c r="A109" t="s">
-        <v>51</v>
-      </c>
-      <c r="B109" t="s">
-        <v>69</v>
-      </c>
-      <c r="C109" t="s">
-        <v>156</v>
-      </c>
-      <c r="D109">
-        <v>830</v>
-      </c>
-      <c r="E109">
-        <v>60.92048192771085</v>
-      </c>
-      <c r="F109">
-        <v>43</v>
-      </c>
-      <c r="G109">
-        <v>740</v>
-      </c>
-      <c r="H109">
-        <v>60.31638418079096</v>
-      </c>
-      <c r="I109">
-        <v>42</v>
-      </c>
-      <c r="J109">
-        <v>5.660722890537328E-05</v>
-      </c>
-      <c r="K109" t="s">
-        <v>217</v>
-      </c>
-      <c r="L109" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12">
-      <c r="A110" t="s">
-        <v>51</v>
-      </c>
-      <c r="B110" t="s">
-        <v>69</v>
-      </c>
-      <c r="C110" t="s">
-        <v>156</v>
-      </c>
-      <c r="D110">
-        <v>830</v>
-      </c>
-      <c r="E110">
-        <v>60.92048192771085</v>
-      </c>
-      <c r="F110">
-        <v>43</v>
-      </c>
-      <c r="G110">
-        <v>740</v>
-      </c>
-      <c r="H110">
-        <v>60.31638418079096</v>
-      </c>
-      <c r="I110">
-        <v>42</v>
-      </c>
-      <c r="J110">
-        <v>5.660722890537328E-05</v>
-      </c>
-      <c r="K110" t="s">
-        <v>217</v>
-      </c>
-      <c r="L110" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12">
-      <c r="A111" t="s">
-        <v>51</v>
-      </c>
-      <c r="B111" t="s">
-        <v>69</v>
-      </c>
-      <c r="C111" t="s">
-        <v>156</v>
-      </c>
-      <c r="D111">
-        <v>830</v>
-      </c>
-      <c r="E111">
-        <v>60.92048192771085</v>
-      </c>
-      <c r="F111">
-        <v>43</v>
-      </c>
-      <c r="G111">
-        <v>740</v>
-      </c>
-      <c r="H111">
-        <v>60.31638418079096</v>
-      </c>
-      <c r="I111">
-        <v>42</v>
-      </c>
-      <c r="J111">
-        <v>5.660722890537328E-05</v>
-      </c>
-      <c r="K111" t="s">
-        <v>217</v>
-      </c>
-      <c r="L111" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12">
-      <c r="A112" t="s">
-        <v>51</v>
-      </c>
-      <c r="B112" t="s">
-        <v>70</v>
-      </c>
-      <c r="C112" t="s">
-        <v>156</v>
-      </c>
-      <c r="D112">
-        <v>830</v>
-      </c>
-      <c r="E112">
-        <v>60.92048192771085</v>
-      </c>
-      <c r="F112">
-        <v>43</v>
-      </c>
-      <c r="G112">
-        <v>740</v>
-      </c>
-      <c r="H112">
-        <v>60.31638418079096</v>
-      </c>
-      <c r="I112">
-        <v>42</v>
-      </c>
-      <c r="J112">
-        <v>5.660722890537328E-05</v>
-      </c>
-      <c r="K112" t="s">
-        <v>217</v>
-      </c>
-      <c r="L112" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12">
-      <c r="A113" t="s">
-        <v>51</v>
-      </c>
-      <c r="B113" t="s">
-        <v>70</v>
-      </c>
-      <c r="C113" t="s">
-        <v>156</v>
-      </c>
-      <c r="D113">
-        <v>830</v>
-      </c>
-      <c r="E113">
-        <v>60.92048192771085</v>
-      </c>
-      <c r="F113">
-        <v>43</v>
-      </c>
-      <c r="G113">
-        <v>740</v>
-      </c>
-      <c r="H113">
-        <v>60.31638418079096</v>
-      </c>
-      <c r="I113">
-        <v>42</v>
-      </c>
-      <c r="J113">
-        <v>5.660722890537328E-05</v>
-      </c>
-      <c r="K113" t="s">
-        <v>217</v>
-      </c>
-      <c r="L113" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12">
-      <c r="A114" t="s">
-        <v>51</v>
-      </c>
-      <c r="B114" t="s">
-        <v>70</v>
-      </c>
-      <c r="C114" t="s">
-        <v>156</v>
-      </c>
-      <c r="D114">
-        <v>830</v>
-      </c>
-      <c r="E114">
-        <v>60.92048192771085</v>
-      </c>
-      <c r="F114">
-        <v>43</v>
-      </c>
-      <c r="G114">
-        <v>740</v>
-      </c>
-      <c r="H114">
-        <v>60.31638418079096</v>
-      </c>
-      <c r="I114">
-        <v>42</v>
-      </c>
-      <c r="J114">
-        <v>5.660722890537328E-05</v>
-      </c>
-      <c r="K114" t="s">
-        <v>217</v>
-      </c>
-      <c r="L114" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12">
-      <c r="A115" t="s">
-        <v>51</v>
-      </c>
-      <c r="B115" t="s">
-        <v>70</v>
-      </c>
-      <c r="C115" t="s">
-        <v>156</v>
-      </c>
-      <c r="D115">
-        <v>830</v>
-      </c>
-      <c r="E115">
-        <v>60.92048192771085</v>
-      </c>
-      <c r="F115">
-        <v>43</v>
-      </c>
-      <c r="G115">
-        <v>740</v>
-      </c>
-      <c r="H115">
-        <v>60.31638418079096</v>
-      </c>
-      <c r="I115">
-        <v>42</v>
-      </c>
-      <c r="J115">
-        <v>5.660722890537328E-05</v>
-      </c>
-      <c r="K115" t="s">
-        <v>217</v>
-      </c>
-      <c r="L115" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12">
-      <c r="A116" t="s">
-        <v>51</v>
-      </c>
-      <c r="B116" t="s">
-        <v>71</v>
-      </c>
-      <c r="C116" t="s">
-        <v>156</v>
-      </c>
-      <c r="D116">
-        <v>830</v>
-      </c>
-      <c r="E116">
-        <v>60.92048192771085</v>
-      </c>
-      <c r="F116">
-        <v>43</v>
-      </c>
-      <c r="G116">
-        <v>740</v>
-      </c>
-      <c r="H116">
-        <v>60.31638418079096</v>
-      </c>
-      <c r="I116">
-        <v>42</v>
-      </c>
-      <c r="J116">
-        <v>5.660722890537328E-05</v>
-      </c>
-      <c r="K116" t="s">
-        <v>217</v>
-      </c>
-      <c r="L116" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12">
-      <c r="A117" t="s">
-        <v>51</v>
-      </c>
-      <c r="B117" t="s">
-        <v>71</v>
-      </c>
-      <c r="C117" t="s">
-        <v>156</v>
-      </c>
-      <c r="D117">
-        <v>830</v>
-      </c>
-      <c r="E117">
-        <v>60.92048192771085</v>
-      </c>
-      <c r="F117">
-        <v>43</v>
-      </c>
-      <c r="G117">
-        <v>740</v>
-      </c>
-      <c r="H117">
-        <v>60.31638418079096</v>
-      </c>
-      <c r="I117">
-        <v>42</v>
-      </c>
-      <c r="J117">
-        <v>5.660722890537328E-05</v>
-      </c>
-      <c r="K117" t="s">
-        <v>217</v>
-      </c>
-      <c r="L117" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12">
-      <c r="A118" t="s">
-        <v>51</v>
-      </c>
-      <c r="B118" t="s">
-        <v>71</v>
-      </c>
-      <c r="C118" t="s">
-        <v>156</v>
-      </c>
-      <c r="D118">
-        <v>830</v>
-      </c>
-      <c r="E118">
-        <v>60.92048192771085</v>
-      </c>
-      <c r="F118">
-        <v>43</v>
-      </c>
-      <c r="G118">
-        <v>740</v>
-      </c>
-      <c r="H118">
-        <v>60.31638418079096</v>
-      </c>
-      <c r="I118">
-        <v>42</v>
-      </c>
-      <c r="J118">
-        <v>5.660722890537328E-05</v>
-      </c>
-      <c r="K118" t="s">
-        <v>217</v>
-      </c>
-      <c r="L118" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12">
-      <c r="A119" t="s">
-        <v>51</v>
-      </c>
-      <c r="B119" t="s">
-        <v>71</v>
-      </c>
-      <c r="C119" t="s">
-        <v>156</v>
-      </c>
-      <c r="D119">
-        <v>830</v>
-      </c>
-      <c r="E119">
-        <v>60.92048192771085</v>
-      </c>
-      <c r="F119">
-        <v>43</v>
-      </c>
-      <c r="G119">
-        <v>740</v>
-      </c>
-      <c r="H119">
-        <v>60.31638418079096</v>
-      </c>
-      <c r="I119">
-        <v>42</v>
-      </c>
-      <c r="J119">
-        <v>5.660722890537328E-05</v>
-      </c>
-      <c r="K119" t="s">
-        <v>217</v>
-      </c>
-      <c r="L119" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12">
-      <c r="A120" t="s">
-        <v>52</v>
-      </c>
-      <c r="B120" t="s">
-        <v>96</v>
-      </c>
-      <c r="C120" t="s">
-        <v>157</v>
-      </c>
-      <c r="D120">
-        <v>770</v>
-      </c>
-      <c r="E120">
-        <v>60.82152974504249</v>
-      </c>
-      <c r="F120">
-        <v>32</v>
-      </c>
-      <c r="G120">
-        <v>746</v>
-      </c>
-      <c r="H120">
-        <v>61.01608579088472</v>
-      </c>
-      <c r="I120">
-        <v>43</v>
-      </c>
-      <c r="J120">
-        <v>0.0003405380339214601</v>
-      </c>
-      <c r="K120" t="s">
-        <v>218</v>
-      </c>
-      <c r="L120" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12">
-      <c r="A121" t="s">
-        <v>53</v>
-      </c>
-      <c r="B121" t="s">
-        <v>97</v>
-      </c>
-      <c r="C121" t="s">
-        <v>158</v>
-      </c>
-      <c r="D121">
-        <v>770</v>
-      </c>
-      <c r="E121">
-        <v>60.74285714285714</v>
-      </c>
-      <c r="F121">
-        <v>33</v>
-      </c>
-      <c r="G121">
-        <v>746</v>
-      </c>
-      <c r="H121">
-        <v>61.16353887399464</v>
-      </c>
-      <c r="I121">
-        <v>42</v>
-      </c>
-      <c r="J121">
-        <v>0.0002821414840376459</v>
-      </c>
-      <c r="K121" t="s">
-        <v>219</v>
-      </c>
-      <c r="L121" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12">
-      <c r="A122" t="s">
-        <v>54</v>
-      </c>
-      <c r="B122" t="s">
-        <v>98</v>
-      </c>
-      <c r="C122" t="s">
-        <v>159</v>
-      </c>
-      <c r="D122">
-        <v>770</v>
-      </c>
-      <c r="E122">
-        <v>60.18441558441558</v>
-      </c>
-      <c r="F122">
-        <v>19</v>
-      </c>
-      <c r="G122">
-        <v>748</v>
-      </c>
-      <c r="H122">
-        <v>60.88770053475936</v>
-      </c>
-      <c r="I122">
-        <v>32</v>
-      </c>
-      <c r="J122">
-        <v>0.006610105731210934</v>
-      </c>
-      <c r="K122" t="s">
-        <v>220</v>
-      </c>
-      <c r="L122" t="s">
         <v>281</v>
       </c>
     </row>
